--- a/biology/Botanique/Liste_des_espèces_du_genre_Fimbristylis/Liste_des_espèces_du_genre_Fimbristylis.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Fimbristylis/Liste_des_espèces_du_genre_Fimbristylis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le genre Fimbristylis, de la famille des Cyperaceae, contient un nombre d'espèces relativement élevé. On dénombre actuellement plus de 300 espèces[1] considérées comme valides. À ce nombre, s'ajoutent de nombreuses espèces maintenant classées comme synonymes.
+Le genre Fimbristylis, de la famille des Cyperaceae, contient un nombre d'espèces relativement élevé. On dénombre actuellement plus de 300 espèces considérées comme valides. À ce nombre, s'ajoutent de nombreuses espèces maintenant classées comme synonymes.
 Enfin, maintes sous-espèces et variétés ont été décrites et sont toujours reconnues.
 Sommaire :
 Haut – A
@@ -522,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,7 +552,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fimbristylis acicularis R.Br.
 Fimbristylis acuminata Vahl
@@ -575,7 +589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -593,7 +607,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fimbristylis bahiensis Steud.
 Fimbristylis barteri Boeck.
@@ -615,7 +631,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -633,7 +649,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fimbristylis caesia Miq.
 Fimbristylis caespitosa R.Br.
@@ -672,7 +690,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -690,7 +708,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fimbristylis dauciformis Govind.
 Fimbristylis debilis Steud.
@@ -719,7 +739,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -737,7 +757,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fimbristylis eichleriana Govind.
 Fimbristylis elegans S.T.Blake
@@ -754,7 +776,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -772,7 +794,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fimbristylis falcata (Vahl) Kunth
 Fimbristylis falcifolia Boeck.
@@ -797,7 +821,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -815,7 +839,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Fimbristylis gabonica Cherm.
 Fimbristylis gambleana Boeck.
@@ -834,7 +860,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -852,7 +878,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Fimbristylis hainanensis Tang &amp; F.T.Wang
 Fimbristylis hawaiiensis Hillebr.
@@ -871,7 +899,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -889,7 +917,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Fimbristylis inaguensis Britton
 Fimbristylis insignis Thwaites
@@ -904,7 +934,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +952,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Fimbristylis jucunda (C.B.Clarke) J.Kern
 Fimbristylis juncea (G.Forst.) R.Br. ex Roem. &amp; Schult.
@@ -936,7 +968,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -954,7 +986,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Fimbristylis kadzusana Ohwi
 Fimbristylis kernii T.Koyama
@@ -969,7 +1003,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -987,7 +1021,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Fimbristylis lanata Roem. &amp; Schult.
 Fimbristylis lanceolata C.B.Clarke
@@ -1017,7 +1053,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1035,7 +1071,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Fimbristylis macassarensis Steud.
 Fimbristylis macrantha Boeck.
@@ -1066,7 +1104,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1084,7 +1122,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Fimbristylis nagpurensis V.P.Prasad &amp; N.P.Singh
 Fimbristylis nanningensis Tang &amp; F.T.Wang
@@ -1104,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1122,7 +1162,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Fimbristylis oblonga T.Koyama
 Fimbristylis obtusata (C.B.Clarke) Ridl.
@@ -1139,7 +1181,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1157,7 +1199,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Fimbristylis pachyptera S.T.Blake
 Fimbristylis palauensis Ohwi
@@ -1195,7 +1239,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1213,7 +1257,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Fimbristylis quadriflora (Boeck.) Beetle
 Fimbristylis quinquangularis (Vahl) Kunth</t>
@@ -1226,7 +1272,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1244,7 +1290,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Fimbristylis rara R.Br.
 Fimbristylis ratnagirica V.P.Prasad &amp; N.P.Singh
@@ -1268,7 +1316,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1286,7 +1334,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Fimbristylis sachetiana Fosberg
 Fimbristylis salbundia (Nees) Kunth
@@ -1342,7 +1392,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1360,7 +1410,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Fimbristylis tamaensis Steyerm.
 Fimbristylis tenera Schult.
@@ -1390,7 +1442,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1408,7 +1460,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Fimbristylis uliginosa Hochst. ex Steud.
 Fimbristylis ultragluma Govind.
@@ -1424,7 +1478,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1442,7 +1496,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Fimbristylis vagans S.T.Blake
 Fimbristylis vaginata (R.Br.) Domin
@@ -1465,7 +1521,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1483,7 +1539,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Fimbristylis xyridis R.Br.</t>
         </is>
@@ -1495,7 +1553,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1513,7 +1571,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Fimbristylis yunnanensis C.B.Clarke</t>
         </is>
@@ -1525,7 +1585,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Fimbristylis</t>
+          <t>Liste_des_espèces_du_genre_Fimbristylis</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1543,7 +1603,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">Fimbristylis zeylanica T.Koyama
 Sommaire :
